--- a/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-7,92%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,63%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,62; 3,26</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-6,62; 0,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 0,42</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-60,09; 125,32</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,31; 17,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,47; 4,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,98%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 5,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 7,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 7,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 3,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 150,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 150,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 141,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,01; 77,3</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,38%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 5,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 5,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,92; 2,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,73; 202,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,54; 66,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,46; 211,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,52; 29,8</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 2,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 3,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,38; -1,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 1,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,24; 88,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,69; 79,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,34; -11,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,39; 17,83</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,6%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 9,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 9,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 8,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 5,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,66; 327,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,54; 152,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; 205,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,81; 78,69</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,82%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 1,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 8,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 4,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,14; 0,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,31; 40,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,45; 185,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,0; 96,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,65; 2,55</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,58%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 3,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,6; 0,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; -1,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,07; 44,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,71; 47,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,76; 1,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,47; -16,44</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,77%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 2,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 1,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 2,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 1,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,7; 44,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,34; 34,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,11; 35,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,3; 31,29</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,05%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; -0,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; 29,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 36,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; 14,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,28; -4,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-28,63%</t>
+          <t>-25,48%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 4,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,42</t>
+          <t>-6,46; 0,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,72; 106,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 4,94</t>
+          <t>-52,14; 11,25</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,93</t>
+          <t>-2,03; 4,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 77,3</t>
+          <t>-23,54; 84,63</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-8,94%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,81</t>
+          <t>-4,62; 2,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 29,8</t>
+          <t>-33,95; 32,01</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,62%</t>
+          <t>-36,88%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,86</t>
+          <t>-1,59; 5,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 1,13</t>
+          <t>-7,28; 0,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 79,47</t>
+          <t>-22,11; 137,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 17,83</t>
+          <t>-63,97; 8,44</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>19,18%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,94</t>
+          <t>-2,65; 6,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 78,69</t>
+          <t>-20,63; 79,44</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,82%</t>
+          <t>-26,53%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 0,31</t>
+          <t>-7,85; 0,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 2,55</t>
+          <t>-47,61; 4,51</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-42,58%</t>
+          <t>-47,97%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -1,18</t>
+          <t>-7,68; -1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-65,47; -16,44</t>
+          <t>-78,45; -20,95</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>18,99%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,57</t>
+          <t>-1,64; 4,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 31,29</t>
+          <t>-23,94; 181,03</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-17,05%</t>
+          <t>-14,96%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; -0,38</t>
+          <t>-2,73; 0,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -4,5</t>
+          <t>-30,21; 9,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,26</t>
+          <t>-3,45; 3,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,31</t>
+          <t>-4,4; 4,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 0,74</t>
+          <t>-6,92; 0,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 0,93</t>
+          <t>-6,63; 0,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 125,32</t>
+          <t>-61,49; 127,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 106,74</t>
+          <t>-48,83; 93,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,31; 17,58</t>
+          <t>-76,43; 19,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 11,25</t>
+          <t>-50,88; 12,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,79</t>
+          <t>-0,57; 5,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,98</t>
+          <t>0,57; 7,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,38</t>
+          <t>0,04; 7,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,0</t>
+          <t>-2,35; 3,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 150,02</t>
+          <t>-8,85; 138,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 150,07</t>
+          <t>3,73; 149,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 141,11</t>
+          <t>-1,38; 135,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 84,63</t>
+          <t>-26,11; 81,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,48</t>
+          <t>-0,93; 6,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 5,23</t>
+          <t>-4,8; 4,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,7</t>
+          <t>-1,24; 5,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,96</t>
+          <t>-5,0; 2,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 202,27</t>
+          <t>-17,59; 208,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 66,26</t>
+          <t>-38,25; 62,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 211,19</t>
+          <t>-25,17; 196,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 32,01</t>
+          <t>-37,52; 28,33</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,64</t>
+          <t>-3,28; 2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,87</t>
+          <t>-2,05; 5,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -1,27</t>
+          <t>-9,99; -1,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,57</t>
+          <t>-7,41; 0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 88,93</t>
+          <t>-52,39; 71,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 137,66</t>
+          <t>-25,06; 130,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -11,97</t>
+          <t>-67,94; -15,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,97; 8,44</t>
+          <t>-65,89; 8,4</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,44</t>
+          <t>-0,8; 9,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 9,12</t>
+          <t>-2,86; 9,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 8,35</t>
+          <t>-1,37; 8,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,05</t>
+          <t>-2,21; 6,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 327,76</t>
+          <t>-15,76; 351,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 152,12</t>
+          <t>-25,63; 157,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 205,76</t>
+          <t>-20,24; 212,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 79,44</t>
+          <t>-18,03; 81,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,17</t>
+          <t>-5,8; 1,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,9</t>
+          <t>-1,43; 8,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,32</t>
+          <t>-4,0; 4,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 0,54</t>
+          <t>-8,11; 0,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,31; 40,11</t>
+          <t>-73,48; 45,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 185,1</t>
+          <t>-15,33; 162,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 96,95</t>
+          <t>-48,83; 104,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,61; 4,51</t>
+          <t>-47,95; 2,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,59</t>
+          <t>-3,09; 2,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,21</t>
+          <t>-3,3; 3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,14</t>
+          <t>-6,19; 0,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -1,45</t>
+          <t>-7,41; -1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 44,85</t>
+          <t>-37,36; 39,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 47,18</t>
+          <t>-31,89; 46,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 1,61</t>
+          <t>-48,86; 7,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-78,45; -20,95</t>
+          <t>-77,09; -21,88</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,2</t>
+          <t>-2,58; 2,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,6</t>
+          <t>-3,29; 1,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,68</t>
+          <t>-3,17; 2,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,37</t>
+          <t>-1,76; 4,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 44,21</t>
+          <t>-36,49; 46,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 34,08</t>
+          <t>-42,7; 37,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 35,21</t>
+          <t>-31,49; 36,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 181,03</t>
+          <t>-24,68; 143,77</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,48</t>
+          <t>-0,61; 1,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,43</t>
+          <t>-0,34; 2,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,14</t>
+          <t>-1,96; 0,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,72</t>
+          <t>-2,71; 0,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 29,31</t>
+          <t>-10,23; 31,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 36,54</t>
+          <t>-4,12; 36,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 14,98</t>
+          <t>-21,26; 10,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 9,03</t>
+          <t>-31,18; 5,28</t>
         </is>
       </c>
     </row>
